--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8248FA1-D23B-4DEB-88AD-8F5FF25DDD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64BA9D8-E639-45B7-9FB0-EC0F8BEB544E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11025" yWindow="3540" windowWidth="13215" windowHeight="15435" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="17775" yWindow="6360" windowWidth="13215" windowHeight="15435" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>这是一个excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A改了一笔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,9 +405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -412,6 +418,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64BA9D8-E639-45B7-9FB0-EC0F8BEB544E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52BBF01-6FA2-4A6C-9A69-724345D8843E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17775" yWindow="6360" windowWidth="13215" windowHeight="15435" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="17775" yWindow="5565" windowWidth="13215" windowHeight="15435" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>这是一个excel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A改了一笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A又改了一笔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -423,6 +427,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64BA9D8-E639-45B7-9FB0-EC0F8BEB544E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA860BAC-1E97-4341-B18B-AE5C379E3293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17775" yWindow="6360" windowWidth="13215" windowHeight="15435" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="17775" yWindow="5565" windowWidth="13215" windowHeight="15435" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>这是一个excel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A改了一笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B也改了一笔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -423,6 +427,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57269405-B476-4B70-A093-A89E0AF6FC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F763674B-C30B-46AB-B6F3-7576B33AE204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17775" yWindow="5565" windowWidth="13215" windowHeight="15435" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>这是一个excel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A改了一笔</t>
+    <t>Excel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,11 +401,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -418,11 +412,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F763674B-C30B-46AB-B6F3-7576B33AE204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05649F0A-9C73-40FA-8B43-06E4B02D8AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
@@ -34,9 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,9 +405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -412,6 +418,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F763674B-C30B-46AB-B6F3-7576B33AE204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872622BB-C10F-4A23-B8C1-DD9FD22C8CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="16785" yWindow="2700" windowWidth="13215" windowHeight="15435" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘻嘻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,9 +405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -412,6 +418,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872622BB-C10F-4A23-B8C1-DD9FD22C8CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81266AC-55E3-40E0-B7FA-8564E9F54748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16785" yWindow="2700" windowWidth="13215" windowHeight="15435" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
@@ -34,13 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Excel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>嘻嘻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -423,6 +427,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872622BB-C10F-4A23-B8C1-DD9FD22C8CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5E0634-1332-4303-AA86-98D6DDF2CFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16785" yWindow="2700" windowWidth="13215" windowHeight="15435" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
@@ -34,13 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Excel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>嘻嘻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -423,6 +427,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5E0634-1332-4303-AA86-98D6DDF2CFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2231230E-F21D-4890-8B54-87C661A370F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16785" yWindow="2700" windowWidth="13215" windowHeight="15435" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="6525" yWindow="3345" windowWidth="20430" windowHeight="16260" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Excel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘻嘻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,11 +401,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -422,16 +412,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81266AC-55E3-40E0-B7FA-8564E9F54748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEAD8B9-C666-4703-832C-08EEB12B0E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16785" yWindow="2700" windowWidth="13215" windowHeight="15435" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="6525" yWindow="3345" windowWidth="20430" windowHeight="16260" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Excel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘻嘻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -422,16 +414,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2231230E-F21D-4890-8B54-87C661A370F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BB182A-A5D7-4632-919D-A9A3A2DADC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6525" yWindow="3345" windowWidth="20430" windowHeight="16260" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
@@ -34,9 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,9 +405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -412,6 +418,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BB182A-A5D7-4632-919D-A9A3A2DADC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C645F3B-BD16-492F-805B-44F853A4CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6525" yWindow="3345" windowWidth="20430" windowHeight="16260" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
@@ -34,13 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Excel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -423,6 +427,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BB182A-A5D7-4632-919D-A9A3A2DADC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1282F5-B650-48EE-95B2-F4FE7E4BBE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6525" yWindow="3345" windowWidth="20430" windowHeight="16260" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
@@ -34,13 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Excel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -423,6 +427,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1282F5-B650-48EE-95B2-F4FE7E4BBE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE689744-5EBF-4E67-AA99-32AB8784740C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="3345" windowWidth="20430" windowHeight="16260" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Excel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,6 +436,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1282F5-B650-48EE-95B2-F4FE7E4BBE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69149D3-2CB5-4901-A41B-4A28B2329274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="3345" windowWidth="20430" windowHeight="16260" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Excel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,6 +436,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69149D3-2CB5-4901-A41B-4A28B2329274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DCAC2D-5DD7-4ED8-B677-4876F323513C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Excel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -441,6 +445,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE689744-5EBF-4E67-AA99-32AB8784740C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C02A0F5-B599-4E05-93B2-D55801AD0B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Excel</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D4DB6-15AC-4A58-9260-555017C7CBB7}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -441,6 +445,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DCAC2D-5DD7-4ED8-B677-4876F323513C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEAA9FF-1756-4AFE-B567-577029808225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
+    <workbookView xWindow="5085" yWindow="0" windowWidth="20430" windowHeight="16200" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A4s</t>
+    <t>A4s1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +420,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\Git-testA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEAA9FF-1756-4AFE-B567-577029808225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C92DBD-0073-4A46-8BB4-FDBA450BB4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5085" yWindow="0" windowWidth="20430" windowHeight="16200" xr2:uid="{340F3899-1A43-43F9-80F3-6A6DB2CC1AD1}"/>
   </bookViews>
@@ -52,7 +52,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A4s1</t>
+    <t>A4s11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +420,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
